--- a/R088.xlsx
+++ b/R088.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t/>
   </si>
@@ -91,15 +91,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>20139524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR.POTATO HDH PHOTO </t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>20076489</t>
   </si>
   <si>
@@ -110,6 +101,21 @@
   </si>
   <si>
     <t>KIN PHOTOCARD JKT48</t>
+  </si>
+  <si>
+    <t>20140198</t>
+  </si>
+  <si>
+    <t>FIESTA TREASURE P/C</t>
+  </si>
+  <si>
+    <t>RT,(E-7H)</t>
+  </si>
+  <si>
+    <t>20140668</t>
+  </si>
+  <si>
+    <t>KIN PTCARD JKT48 SRS</t>
   </si>
 </sst>
 </file>
@@ -502,14 +508,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="6" width="4" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -683,41 +690,41 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -726,9 +733,29 @@
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/R088.xlsx
+++ b/R088.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
   <si>
     <t/>
   </si>
@@ -70,24 +70,33 @@
     <t>INDOMILK GAME KARTU</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>20137100</t>
+  </si>
+  <si>
+    <t>INDOMILK FOTO SEVNTN</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>20137100</t>
-  </si>
-  <si>
-    <t>INDOMILK FOTO SEVNTN</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>20139353</t>
   </si>
   <si>
     <t>AMO TWICE CARD</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>20140810</t>
+  </si>
+  <si>
+    <t>G/DAY PC BB.MONSTER</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
@@ -97,6 +106,15 @@
     <t>BEAUTY TOTE BAG</t>
   </si>
   <si>
+    <t>20140270</t>
+  </si>
+  <si>
+    <t>SUNSLK BB.MONSTER PC</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
     <t>20139151</t>
   </si>
   <si>
@@ -116,6 +134,12 @@
   </si>
   <si>
     <t>KIN PTCARD JKT48 SRS</t>
+  </si>
+  <si>
+    <t>20141232</t>
+  </si>
+  <si>
+    <t>FIESTA STANDEE TREAS</t>
   </si>
 </sst>
 </file>
@@ -508,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -690,61 +714,61 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
@@ -753,9 +777,69 @@
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
